--- a/nifi/application/config/xlsx_config/IMMO_FR.CONSTRUIRE_CONFIG.xlsx
+++ b/nifi/application/config/xlsx_config/IMMO_FR.CONSTRUIRE_CONFIG.xlsx
@@ -15,6 +15,7 @@
     <sheet name="LOGICIMMOCONSTRUIRE" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="AVENDREALOUERTERRAIN" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Glossary of Expectations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="YURY.ACHATTERRAIN" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Glossary of Expectations'!$A$1:$H$42</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="204">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1007,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1829,11 +1830,11 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E6 E8:E12 E15:E16 E20:E21 E23" type="list">
-      <formula1>#REF!!$AB$2:$AB$11</formula1>
+      <formula1>#ref!!$ab$2:$ab$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F6 F8:F12 F15:F16" type="list">
-      <formula1>#REF!!$AC$2:$AC$7</formula1>
+      <formula1>#ref!!$ac$2:$ac$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3500,4 +3501,51 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>